--- a/biology/Botanique/Theobroma_velutinum/Theobroma_velutinum.xlsx
+++ b/biology/Botanique/Theobroma_velutinum/Theobroma_velutinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Theobroma velutinum est une espèce d'arbre néotropicale, proche du cacaoyer cultivé, appartenant à la famille des Malvaceae (anciennement des Sterculiaceae).
-En Guyane, on l'appelle Cacao, Cacao sauvage, Cacahuette sauvage[2], Cacao grand-bois (Créole), Busi kakao, (Aluku), Boesi kakaw (Nenge tongo), Cacaurana (Portugais)[3],[4].
+En Guyane, on l'appelle Cacao, Cacao sauvage, Cacahuette sauvage, Cacao grand-bois (Créole), Busi kakao, (Aluku), Boesi kakaw (Nenge tongo), Cacaurana (Portugais),.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Theobroma velutinum est un petit arbre pouvant atteindre jusqu'à 10(14) m de haut, avec une écorce grise mouchetée de blanc, et un bois de couleur crème.
 Ses feuilles ont un limbe vert, plus ou moins bullé, et glabre dessus, long de 20-35(40) cm pour 10-18(24) cm de large, densément tomenteux velouté à poils étoilés grisâtres ou rousseâtres dessous, de forme oblong-ovale ou oblongue lancéolée aigüe, plus ou moins symétrique, à l'apex acuminé et mucroné, à base arrondie, obtuse ou parfois subcordée ou clivée (rarement), à marges entières, légèrement sinueuses ou denticulée.
@@ -522,7 +536,7 @@
 Le calice de couleur rouge lie de vin ou brun rougeâtre foncé, porte des lobes lancéolés-oblongs, aigus, long de (0,8)1,5 cm.
 La corolle de forme obovale-oblongue, est composée de pétales capuchonnés rouges, mesurant jusqu'à 7 × 3 mm, à 3 nervures ; le limbe des pétales, est de forme sub-trapézoïdal, long de 6 à 7,5 mm, de couleur lie-de-vin clair, et légèrement sinueux à l'apex. Les pétales comportent une ligule largement obcordée, subsessile ovale émarginée.
 L'androcée est composée de 3 étamines portant une anthère, ainsi que de staminodes de forme oblongue lancéolées-subulées, charnues, longues d'environ 6 mm, de couleur rouge vin foncé.
-Le fruit est une cabosse jaune, ellipsoïde-globuleux, à 5 côtes épaisses et proéminentes, obtuse, tomenteuse (poils doux, étoilés, veloutés), longue de 8-10 cm pour 6-6,5(8) cm de large, et contenant environ 15-30 graines[5],[2],[6],[7].
+Le fruit est une cabosse jaune, ellipsoïde-globuleux, à 5 côtes épaisses et proéminentes, obtuse, tomenteuse (poils doux, étoilés, veloutés), longue de 8-10 cm pour 6-6,5(8) cm de large, et contenant environ 15-30 graines.
 </t>
         </is>
       </c>
@@ -551,7 +565,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Theobroma velutinum est une espèce endémique du plateau des Guyanes : Est du Suriname (bassin du Maroni), Guyane, Amapá et Pará (bas Jari).
 </t>
@@ -582,10 +598,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Theobroma velutinum pousse  dispersé dans les forêts de terre ferme non inondées. En Guyane, il fleurit en avril, septembre, octobre, novembre, et fructifie en mai, août[2].
-Theobroma velutinum aurait été une espèce disséminée par la mégafaune du Pléistocène[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Theobroma velutinum pousse  dispersé dans les forêts de terre ferme non inondées. En Guyane, il fleurit en avril, septembre, octobre, novembre, et fructifie en mai, août.
+Theobroma velutinum aurait été une espèce disséminée par la mégafaune du Pléistocène.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les fruits de Theobroma velutinum sont comestibles : la pulpe est consommée crue[4],[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits de Theobroma velutinum sont comestibles : la pulpe est consommée crue,.
 </t>
         </is>
       </c>
@@ -645,9 +665,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Cacao guianensis (synonyme de Theobroma velutinum Benoist)[10] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante pour Cacao guianensis (synonyme de Theobroma velutinum Benoist) : 
 « CACAO (Guianenſis) fructu ovato, quinquangulari, tomentoſo, rufeſcente. (TABULA 275.)
 Arbor mediocris, trunco quinque-pedali, ramoſo ; ramis hinc &amp; indé ſparſis : ſæpè plures trunci ex cadem radice prodeunt. Folia alterna, ampla, ovato-oblonga, acuta, ſupernè glabra, viridia, infernè tomento cinereo tecta, ſubdentata, denticulis minimis, remotis, brevi petiolata. Stipulæ binæ, exiguæ, oppoſitæ, decidual. Flores pedunculati ſupra truncum &amp; ramos, tres, quatuor, quinque, ſex, in codem puncto erumpentes, inter quos plures abortivi. 
 Florebat, fructumque ferebat Septembri. 
